--- a/Data/Input/Relatório_Analítico.xlsx
+++ b/Data/Input/Relatório_Analítico.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B46E08-AA6C-4A66-B11C-F9D4F198038C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAB6539-AE06-41D6-8D77-5625647698FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,15 +205,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,6 +216,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:G398"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A7" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,44 +598,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:7" s="18" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" s="19" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:7" s="20" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3814,6 +3814,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DFC2B4B9DC439F4FB8EA5770FAFDF57B" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="cc38501fca42402d7e8095a114b7ae66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74f9ddb5-1420-4a28-a31c-0e89ef2b5702" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82f14b2a728a456db20d170a45fec131" ns2:_="">
     <xsd:import namespace="74f9ddb5-1420-4a28-a31c-0e89ef2b5702"/>
@@ -3997,15 +4006,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4013,6 +4013,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F6F68C-568D-42BD-8ECA-FDAF9E3B74B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5969A0BE-350C-4F04-8C47-ADB3961AC60F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4030,14 +4038,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7F6F68C-568D-42BD-8ECA-FDAF9E3B74B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DE20FF9-CAEB-4CD6-8808-057A63CD9E81}">
   <ds:schemaRefs>
